--- a/files/PBX_Doku_Vorlage.xlsx
+++ b/files/PBX_Doku_Vorlage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\PycharmProjects\DokutoolV1\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42328C7-C233-4C84-88AE-D12743DE1999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23507B0F-8E1D-46B3-A541-899FA54AD408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Kundendatenliste!$A$1:$M$256</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Modulbestückung!$A$1:$W$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Seriennummer!$A$1:$H$105</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">System!$A$1:$H$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">System!$A$1:$H$76</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Durchwahl Liste'!$5:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Kundendatenliste!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">Modulbestückung!$1:$4</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="75">
   <si>
     <t>Objekt</t>
   </si>
@@ -267,9 +267,6 @@
     <t>System Informationen</t>
   </si>
   <si>
-    <t>HW-ID</t>
-  </si>
-  <si>
     <t>DW 1:</t>
   </si>
   <si>
@@ -277,6 +274,18 @@
   </si>
   <si>
     <t>DW 3:</t>
+  </si>
+  <si>
+    <t>MX-One Version:</t>
+  </si>
+  <si>
+    <t>SNM Version:</t>
+  </si>
+  <si>
+    <t>PM Version:</t>
+  </si>
+  <si>
+    <t>00325_Parcom</t>
   </si>
 </sst>
 </file>
@@ -870,7 +879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1318,15 +1327,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1344,8 +1348,49 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1354,9 +1399,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1388,17 +1430,63 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1409,6 +1497,34 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1426,92 +1542,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1523,32 +1559,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1634,7 +1653,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>651078</xdr:colOff>
+      <xdr:colOff>651079</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>557664</xdr:rowOff>
     </xdr:to>
@@ -2175,7 +2194,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -2187,8 +2206,8 @@
     <col min="5" max="5" width="10" style="82" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="82" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" style="82" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="82" customWidth="1"/>
-    <col min="9" max="9" width="12" style="82" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="82" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="82" customWidth="1"/>
     <col min="10" max="11" width="9.7109375" style="82" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" style="82" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" style="82" bestFit="1" customWidth="1"/>
@@ -2196,21 +2215,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="51" customHeight="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
       <c r="O1" s="12" t="s">
         <v>40</v>
       </c>
@@ -2219,101 +2238,105 @@
       <c r="A2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="142"/>
+      <c r="B2" s="147" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="148"/>
       <c r="D2" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="141"/>
-      <c r="F2" s="142"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="148"/>
       <c r="G2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="200" t="s">
-        <v>69</v>
+      <c r="H2" s="152">
+        <v>44075</v>
       </c>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="140" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1">
       <c r="A3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="142"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="148"/>
       <c r="D3" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="141"/>
-      <c r="F3" s="142"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
       <c r="G3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="198"/>
-      <c r="I3" s="198"/>
-      <c r="J3" s="201" t="s">
-        <v>70</v>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="141" t="s">
+        <v>69</v>
       </c>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1">
       <c r="A4" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="141"/>
-      <c r="C4" s="142"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="148"/>
       <c r="D4" s="79"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="142"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="148"/>
       <c r="G4" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
-      <c r="J4" s="201" t="s">
-        <v>71</v>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="141" t="s">
+        <v>70</v>
       </c>
-      <c r="K4" s="199"/>
-      <c r="L4" s="199"/>
-      <c r="M4" s="199"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
     </row>
     <row r="5" spans="1:15" ht="18.75">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="143"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="145" t="s">
+      <c r="B5" s="142"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143" t="s">
+      <c r="F5" s="142"/>
+      <c r="G5" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="144"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="143"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="148"/>
-      <c r="C6" s="146" t="s">
+      <c r="B6" s="149"/>
+      <c r="C6" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="148"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="149"/>
       <c r="G6" s="112"/>
       <c r="H6" s="112"/>
       <c r="I6" s="112"/>
@@ -9092,6 +9115,15 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="19">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A5:D5"/>
@@ -9102,15 +9134,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="B208:B454">
@@ -9155,153 +9178,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="50.25" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="161"/>
-      <c r="S1" s="161"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="154"/>
+      <c r="S1" s="154"/>
     </row>
     <row r="2" spans="1:21" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="202">
+      <c r="B2" s="157"/>
+      <c r="C2" s="158" t="str">
         <f xml:space="preserve"> Kundendatenliste!B2</f>
-        <v>0</v>
+        <v>00325_Parcom</v>
       </c>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="151" t="s">
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="162">
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="155">
         <f>Kundendatenliste!K2</f>
         <v>0</v>
       </c>
-      <c r="N2" s="204"/>
-      <c r="O2" s="204"/>
-      <c r="P2" s="204"/>
-      <c r="Q2" s="204"/>
-      <c r="R2" s="204"/>
-      <c r="S2" s="204"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="156"/>
+      <c r="Q2" s="156"/>
+      <c r="R2" s="156"/>
+      <c r="S2" s="156"/>
       <c r="T2" s="2"/>
       <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:21" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="151"/>
-      <c r="C3" s="202">
+      <c r="B3" s="157"/>
+      <c r="C3" s="158">
         <f xml:space="preserve"> Kundendatenliste!B3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="151" t="s">
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="162">
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="155">
         <f>Kundendatenliste!K3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="204"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="156"/>
+      <c r="S3" s="156"/>
       <c r="T3" s="1"/>
       <c r="U3" s="4"/>
     </row>
     <row r="4" spans="1:21" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="151" t="s">
+      <c r="A4" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="151"/>
-      <c r="C4" s="202">
+      <c r="B4" s="157"/>
+      <c r="C4" s="158">
         <f xml:space="preserve"> Kundendatenliste!B4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="203"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="151" t="s">
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="162">
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="157"/>
+      <c r="M4" s="155">
         <f>Kundendatenliste!K4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="204"/>
-      <c r="O4" s="204"/>
-      <c r="P4" s="204"/>
-      <c r="Q4" s="204"/>
-      <c r="R4" s="204"/>
-      <c r="S4" s="204"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="156"/>
+      <c r="R4" s="156"/>
+      <c r="S4" s="156"/>
       <c r="T4" s="1"/>
       <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" ht="18.75">
-      <c r="A5" s="155" t="s">
+      <c r="A5" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="152" t="s">
+      <c r="B5" s="166"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="153"/>
-      <c r="F5" s="154" t="s">
+      <c r="E5" s="163"/>
+      <c r="F5" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="154"/>
-      <c r="N5" s="154"/>
-      <c r="O5" s="154"/>
-      <c r="P5" s="154"/>
-      <c r="Q5" s="154"/>
-      <c r="R5" s="154"/>
-      <c r="S5" s="154"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="164"/>
+      <c r="P5" s="164"/>
+      <c r="Q5" s="164"/>
+      <c r="R5" s="164"/>
+      <c r="S5" s="164"/>
     </row>
     <row r="6" spans="1:21" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="105" t="s">
@@ -9311,20 +9334,20 @@
       <c r="C6" s="26"/>
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="150"/>
-      <c r="O6" s="150"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="150"/>
-      <c r="R6" s="149"/>
-      <c r="S6" s="150"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="160"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="161"/>
+      <c r="P6" s="161"/>
+      <c r="Q6" s="161"/>
+      <c r="R6" s="160"/>
+      <c r="S6" s="161"/>
     </row>
     <row r="7" spans="1:21" ht="16.149999999999999" customHeight="1">
       <c r="A7" s="106"/>
@@ -43337,6 +43360,14 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="19">
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:S5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="F6:L6"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="M4:S4"/>
     <mergeCell ref="M3:S3"/>
@@ -43348,14 +43379,6 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:S5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="F6:L6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="B10:E509">
@@ -43383,12 +43406,12 @@
   <dimension ref="A1:H489"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="29" style="13" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="80" customWidth="1"/>
     <col min="3" max="5" width="14.140625" style="13" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="97" customWidth="1"/>
@@ -43397,780 +43420,782 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="90">
+      <c r="B2" s="90" t="str">
         <f>Kundendatenliste!B2</f>
-        <v>0</v>
+        <v>00325_Parcom</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="111"/>
       <c r="E2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="164">
+      <c r="F2" s="172">
         <f>Kundendatenliste!H2</f>
-        <v>0</v>
+        <v>44075</v>
       </c>
-      <c r="G2" s="164"/>
+      <c r="G2" s="172"/>
       <c r="H2" s="110"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="128" t="s">
-        <v>5</v>
+      <c r="A3" s="207" t="s">
+        <v>71</v>
       </c>
       <c r="B3" s="93"/>
       <c r="C3" s="93"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
       <c r="H3" s="71"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="128" t="s">
-        <v>68</v>
+      <c r="A4" s="207" t="s">
+        <v>72</v>
       </c>
       <c r="B4" s="93"/>
       <c r="C4" s="93"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
       <c r="H4" s="71"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="128"/>
+      <c r="A5" s="207" t="s">
+        <v>73</v>
+      </c>
       <c r="B5" s="93"/>
       <c r="C5" s="93"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
       <c r="H5" s="71"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="128"/>
       <c r="B6" s="93"/>
       <c r="C6" s="93"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
       <c r="H6" s="71"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="128"/>
       <c r="B7" s="93"/>
       <c r="C7" s="93"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="71"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="205"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="128"/>
       <c r="B8" s="93"/>
       <c r="C8" s="93"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="71"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="205"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="128"/>
       <c r="B9" s="93"/>
       <c r="C9" s="93"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="71"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="205"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="128"/>
       <c r="B10" s="93"/>
       <c r="C10" s="93"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="71"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="205"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="128"/>
       <c r="B11" s="93"/>
       <c r="C11" s="93"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="71"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="205"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="128"/>
       <c r="B12" s="93"/>
       <c r="C12" s="93"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="71"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="205"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="128"/>
       <c r="B13" s="93"/>
       <c r="C13" s="93"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="71"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="205"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="128"/>
       <c r="B14" s="93"/>
       <c r="C14" s="93"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="71"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="205"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="68"/>
+      <c r="A15" s="128"/>
       <c r="B15" s="93"/>
       <c r="C15" s="93"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="71"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="205"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="68"/>
+      <c r="A16" s="128"/>
       <c r="B16" s="93"/>
       <c r="C16" s="93"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="71"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="205"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="68"/>
+      <c r="A17" s="128"/>
       <c r="B17" s="93"/>
       <c r="C17" s="93"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="71"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="205"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="68"/>
+      <c r="A18" s="128"/>
       <c r="B18" s="93"/>
       <c r="C18" s="93"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="71"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="205"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="68"/>
+      <c r="A19" s="128"/>
       <c r="B19" s="93"/>
       <c r="C19" s="93"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="71"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="205"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="68"/>
+      <c r="A20" s="128"/>
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="71"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="205"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="68"/>
+      <c r="A21" s="128"/>
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="71"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="205"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="68"/>
+      <c r="A22" s="128"/>
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="71"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="205"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="68"/>
+      <c r="A23" s="128"/>
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="71"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="205"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="68"/>
+      <c r="A24" s="128"/>
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="71"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="205"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="68"/>
+      <c r="A25" s="128"/>
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="71"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="205"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="68"/>
+      <c r="A26" s="128"/>
       <c r="B26" s="93"/>
       <c r="C26" s="93"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="71"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="205"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="68"/>
+      <c r="A27" s="128"/>
       <c r="B27" s="93"/>
       <c r="C27" s="93"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="71"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="205"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="68"/>
+      <c r="A28" s="128"/>
       <c r="B28" s="93"/>
       <c r="C28" s="93"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="71"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="205"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="68"/>
+      <c r="A29" s="128"/>
       <c r="B29" s="93"/>
       <c r="C29" s="93"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="71"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="205"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="68"/>
+      <c r="A30" s="128"/>
       <c r="B30" s="93"/>
       <c r="C30" s="93"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="71"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="205"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="68"/>
+      <c r="A31" s="128"/>
       <c r="B31" s="93"/>
       <c r="C31" s="93"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="71"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="205"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="68"/>
+      <c r="A32" s="128"/>
       <c r="B32" s="93"/>
       <c r="C32" s="93"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="71"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="205"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="68"/>
+      <c r="A33" s="128"/>
       <c r="B33" s="93"/>
       <c r="C33" s="93"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="71"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="205"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="68"/>
+      <c r="A34" s="128"/>
       <c r="B34" s="93"/>
       <c r="C34" s="93"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="71"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="205"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="68"/>
+      <c r="A35" s="128"/>
       <c r="B35" s="93"/>
       <c r="C35" s="93"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="71"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="205"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="68"/>
+      <c r="A36" s="128"/>
       <c r="B36" s="93"/>
       <c r="C36" s="93"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="71"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="205"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="68"/>
+      <c r="A37" s="128"/>
       <c r="B37" s="93"/>
       <c r="C37" s="93"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="71"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="205"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="68"/>
+      <c r="A38" s="128"/>
       <c r="B38" s="93"/>
       <c r="C38" s="93"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="71"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="205"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="68"/>
+      <c r="A39" s="128"/>
       <c r="B39" s="93"/>
       <c r="C39" s="93"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="71"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="205"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="68"/>
+      <c r="A40" s="128"/>
       <c r="B40" s="93"/>
       <c r="C40" s="93"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="71"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="205"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="68"/>
+      <c r="A41" s="128"/>
       <c r="B41" s="93"/>
       <c r="C41" s="93"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="71"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="205"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="68"/>
+      <c r="A42" s="128"/>
       <c r="B42" s="93"/>
       <c r="C42" s="93"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="71"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="205"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="68"/>
+      <c r="A43" s="128"/>
       <c r="B43" s="93"/>
       <c r="C43" s="93"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="71"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="205"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="68"/>
+      <c r="A44" s="128"/>
       <c r="B44" s="93"/>
       <c r="C44" s="93"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="71"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="205"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="68"/>
+      <c r="A45" s="128"/>
       <c r="B45" s="93"/>
       <c r="C45" s="93"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="71"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="205"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="68"/>
+      <c r="A46" s="128"/>
       <c r="B46" s="93"/>
       <c r="C46" s="93"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="71"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="93"/>
+      <c r="H46" s="205"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="68"/>
+      <c r="A47" s="128"/>
       <c r="B47" s="93"/>
       <c r="C47" s="93"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="71"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="93"/>
+      <c r="H47" s="205"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="68"/>
+      <c r="A48" s="128"/>
       <c r="B48" s="93"/>
       <c r="C48" s="93"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="71"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="205"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="68"/>
+      <c r="A49" s="128"/>
       <c r="B49" s="93"/>
       <c r="C49" s="93"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="71"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="205"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="68"/>
+      <c r="A50" s="128"/>
       <c r="B50" s="93"/>
       <c r="C50" s="93"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="71"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="93"/>
+      <c r="H50" s="205"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="68"/>
+      <c r="A51" s="128"/>
       <c r="B51" s="93"/>
       <c r="C51" s="93"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="71"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="93"/>
+      <c r="H51" s="205"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="68"/>
+      <c r="A52" s="128"/>
       <c r="B52" s="93"/>
       <c r="C52" s="93"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="89"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="71"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="93"/>
+      <c r="H52" s="205"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="68"/>
+      <c r="A53" s="128"/>
       <c r="B53" s="93"/>
       <c r="C53" s="93"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="89"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="71"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="205"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="68"/>
+      <c r="A54" s="128"/>
       <c r="B54" s="93"/>
       <c r="C54" s="93"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="89"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="71"/>
+      <c r="D54" s="93"/>
+      <c r="E54" s="93"/>
+      <c r="F54" s="93"/>
+      <c r="G54" s="93"/>
+      <c r="H54" s="205"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="68"/>
+      <c r="A55" s="128"/>
       <c r="B55" s="93"/>
       <c r="C55" s="93"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="89"/>
-      <c r="G55" s="89"/>
-      <c r="H55" s="71"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="93"/>
+      <c r="H55" s="205"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="68"/>
+      <c r="A56" s="128"/>
       <c r="B56" s="93"/>
       <c r="C56" s="93"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="89"/>
-      <c r="G56" s="89"/>
-      <c r="H56" s="71"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="93"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="205"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="68"/>
+      <c r="A57" s="128"/>
       <c r="B57" s="93"/>
       <c r="C57" s="93"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="89"/>
-      <c r="G57" s="89"/>
-      <c r="H57" s="71"/>
+      <c r="D57" s="93"/>
+      <c r="E57" s="93"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="93"/>
+      <c r="H57" s="205"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="68"/>
+      <c r="A58" s="128"/>
       <c r="B58" s="93"/>
       <c r="C58" s="93"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="89"/>
-      <c r="G58" s="89"/>
-      <c r="H58" s="71"/>
+      <c r="D58" s="93"/>
+      <c r="E58" s="93"/>
+      <c r="F58" s="93"/>
+      <c r="G58" s="93"/>
+      <c r="H58" s="205"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="68"/>
+      <c r="A59" s="128"/>
       <c r="B59" s="93"/>
       <c r="C59" s="93"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="89"/>
-      <c r="G59" s="89"/>
-      <c r="H59" s="71"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="93"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="93"/>
+      <c r="H59" s="205"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="68"/>
+      <c r="A60" s="128"/>
       <c r="B60" s="93"/>
       <c r="C60" s="93"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="89"/>
-      <c r="G60" s="89"/>
-      <c r="H60" s="71"/>
+      <c r="D60" s="93"/>
+      <c r="E60" s="93"/>
+      <c r="F60" s="93"/>
+      <c r="G60" s="93"/>
+      <c r="H60" s="205"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="68"/>
+      <c r="A61" s="128"/>
       <c r="B61" s="93"/>
       <c r="C61" s="93"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="89"/>
-      <c r="G61" s="89"/>
-      <c r="H61" s="71"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="93"/>
+      <c r="G61" s="93"/>
+      <c r="H61" s="205"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="68"/>
+      <c r="A62" s="128"/>
       <c r="B62" s="93"/>
       <c r="C62" s="93"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="89"/>
-      <c r="G62" s="89"/>
-      <c r="H62" s="71"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="93"/>
+      <c r="H62" s="205"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="68"/>
+      <c r="A63" s="128"/>
       <c r="B63" s="93"/>
       <c r="C63" s="93"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="89"/>
-      <c r="G63" s="89"/>
-      <c r="H63" s="71"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="93"/>
+      <c r="H63" s="205"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="68"/>
+      <c r="A64" s="128"/>
       <c r="B64" s="93"/>
       <c r="C64" s="93"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="89"/>
-      <c r="G64" s="89"/>
-      <c r="H64" s="71"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="93"/>
+      <c r="F64" s="93"/>
+      <c r="G64" s="93"/>
+      <c r="H64" s="205"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="68"/>
+      <c r="A65" s="128"/>
       <c r="B65" s="93"/>
       <c r="C65" s="93"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="89"/>
-      <c r="G65" s="89"/>
-      <c r="H65" s="71"/>
+      <c r="D65" s="93"/>
+      <c r="E65" s="93"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="93"/>
+      <c r="H65" s="205"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="68"/>
+      <c r="A66" s="128"/>
       <c r="B66" s="93"/>
       <c r="C66" s="93"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="89"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="71"/>
+      <c r="D66" s="93"/>
+      <c r="E66" s="93"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="93"/>
+      <c r="H66" s="205"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="68"/>
+      <c r="A67" s="128"/>
       <c r="B67" s="93"/>
       <c r="C67" s="93"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="68"/>
-      <c r="F67" s="89"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="71"/>
+      <c r="D67" s="93"/>
+      <c r="E67" s="93"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="93"/>
+      <c r="H67" s="205"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="68"/>
+      <c r="A68" s="128"/>
       <c r="B68" s="93"/>
       <c r="C68" s="93"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="68"/>
-      <c r="F68" s="89"/>
-      <c r="G68" s="89"/>
-      <c r="H68" s="71"/>
+      <c r="D68" s="93"/>
+      <c r="E68" s="93"/>
+      <c r="F68" s="93"/>
+      <c r="G68" s="93"/>
+      <c r="H68" s="205"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="68"/>
+      <c r="A69" s="128"/>
       <c r="B69" s="93"/>
       <c r="C69" s="93"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="68"/>
-      <c r="F69" s="89"/>
-      <c r="G69" s="89"/>
-      <c r="H69" s="71"/>
+      <c r="D69" s="93"/>
+      <c r="E69" s="93"/>
+      <c r="F69" s="93"/>
+      <c r="G69" s="93"/>
+      <c r="H69" s="205"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="68"/>
+      <c r="A70" s="128"/>
       <c r="B70" s="93"/>
       <c r="C70" s="93"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="68"/>
-      <c r="F70" s="89"/>
-      <c r="G70" s="89"/>
-      <c r="H70" s="71"/>
+      <c r="D70" s="93"/>
+      <c r="E70" s="93"/>
+      <c r="F70" s="93"/>
+      <c r="G70" s="93"/>
+      <c r="H70" s="205"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="68"/>
+      <c r="A71" s="128"/>
       <c r="B71" s="93"/>
       <c r="C71" s="93"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="89"/>
-      <c r="G71" s="89"/>
-      <c r="H71" s="71"/>
+      <c r="D71" s="93"/>
+      <c r="E71" s="93"/>
+      <c r="F71" s="93"/>
+      <c r="G71" s="93"/>
+      <c r="H71" s="205"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="68"/>
+      <c r="A72" s="128"/>
       <c r="B72" s="93"/>
       <c r="C72" s="93"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="68"/>
-      <c r="F72" s="89"/>
-      <c r="G72" s="89"/>
-      <c r="H72" s="71"/>
+      <c r="D72" s="93"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="93"/>
+      <c r="G72" s="93"/>
+      <c r="H72" s="205"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="68"/>
+      <c r="A73" s="128"/>
       <c r="B73" s="93"/>
       <c r="C73" s="93"/>
-      <c r="D73" s="71"/>
-      <c r="E73" s="68"/>
-      <c r="F73" s="89"/>
-      <c r="G73" s="89"/>
-      <c r="H73" s="71"/>
+      <c r="D73" s="93"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="93"/>
+      <c r="H73" s="205"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="68"/>
+      <c r="A74" s="128"/>
       <c r="B74" s="93"/>
       <c r="C74" s="93"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="89"/>
-      <c r="G74" s="89"/>
-      <c r="H74" s="71"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="93"/>
+      <c r="F74" s="93"/>
+      <c r="G74" s="93"/>
+      <c r="H74" s="205"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="68"/>
+      <c r="A75" s="128"/>
       <c r="B75" s="93"/>
       <c r="C75" s="93"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="89"/>
-      <c r="G75" s="89"/>
-      <c r="H75" s="71"/>
+      <c r="D75" s="93"/>
+      <c r="E75" s="93"/>
+      <c r="F75" s="93"/>
+      <c r="G75" s="93"/>
+      <c r="H75" s="205"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="68"/>
+      <c r="A76" s="128"/>
       <c r="B76" s="93"/>
       <c r="C76" s="93"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="68"/>
-      <c r="F76" s="89"/>
-      <c r="G76" s="89"/>
-      <c r="H76" s="71"/>
+      <c r="D76" s="93"/>
+      <c r="E76" s="93"/>
+      <c r="F76" s="93"/>
+      <c r="G76" s="93"/>
+      <c r="H76" s="205"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="68"/>
@@ -48321,7 +48346,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.78740157480314965" header="0" footer="0.59055118110236227"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Frutiger LT Std 47 Light Cn,Standard"&amp;8Seite &amp;P von &amp;N&amp;R&amp;"Frutiger LT Std 47 Light Cn,Standard"&amp;6ParCom Systems AG  |  Hasliring 1  |  6032 Emmen  | 041 268 60 00  | http://www.parcom.ch</oddFooter>
   </headerFooter>
@@ -48346,153 +48371,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="60" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
     </row>
     <row r="2" spans="1:23" ht="18" customHeight="1">
       <c r="A2" s="46"/>
-      <c r="B2" s="168" t="s">
+      <c r="B2" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="171">
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="199" t="str">
         <f>Kundendatenliste!B2</f>
-        <v>0</v>
+        <v>00325_Parcom</v>
       </c>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
       <c r="J2" s="45"/>
       <c r="K2" s="45"/>
       <c r="L2" s="45"/>
-      <c r="M2" s="168" t="s">
+      <c r="M2" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="164">
+      <c r="N2" s="196"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="172">
         <f>Kundendatenliste!H2</f>
-        <v>0</v>
+        <v>44075</v>
       </c>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="172"/>
       <c r="U2" s="45"/>
       <c r="V2" s="46"/>
       <c r="W2" s="46"/>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1">
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
       <c r="J3" s="37"/>
       <c r="K3" s="37"/>
       <c r="L3" s="37"/>
-      <c r="M3" s="168" t="s">
+      <c r="M3" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="168"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="169" t="s">
+      <c r="N3" s="196"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="197" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
+      <c r="Q3" s="198"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="198"/>
+      <c r="T3" s="198"/>
       <c r="U3" s="37"/>
     </row>
     <row r="4" spans="1:23" ht="18" customHeight="1"/>
     <row r="5" spans="1:23" s="42" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B5" s="176" t="s">
+      <c r="B5" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="178"/>
-      <c r="J5" s="179" t="s">
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="193" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="180"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="176" t="s">
+      <c r="K5" s="194"/>
+      <c r="L5" s="195"/>
+      <c r="M5" s="181" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="177"/>
-      <c r="O5" s="177"/>
-      <c r="P5" s="177"/>
-      <c r="Q5" s="177"/>
-      <c r="R5" s="177"/>
-      <c r="S5" s="177"/>
-      <c r="T5" s="178"/>
-      <c r="U5" s="172"/>
-      <c r="V5" s="173"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="182"/>
+      <c r="S5" s="182"/>
+      <c r="T5" s="183"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="185"/>
     </row>
     <row r="6" spans="1:23" s="43" customFormat="1" ht="13.15" customHeight="1">
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="188" t="s">
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="189"/>
-      <c r="L6" s="190"/>
-      <c r="M6" s="165" t="s">
+      <c r="K6" s="190"/>
+      <c r="L6" s="191"/>
+      <c r="M6" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="166"/>
-      <c r="O6" s="166"/>
-      <c r="P6" s="166"/>
-      <c r="Q6" s="166"/>
-      <c r="R6" s="166"/>
-      <c r="S6" s="166"/>
-      <c r="T6" s="167"/>
-      <c r="U6" s="193" t="s">
+      <c r="N6" s="187"/>
+      <c r="O6" s="187"/>
+      <c r="P6" s="187"/>
+      <c r="Q6" s="187"/>
+      <c r="R6" s="187"/>
+      <c r="S6" s="187"/>
+      <c r="T6" s="188"/>
+      <c r="U6" s="192" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="193"/>
+      <c r="V6" s="192"/>
     </row>
     <row r="7" spans="1:23" s="42" customFormat="1" ht="29.25" customHeight="1">
       <c r="B7" s="66" t="s">
@@ -48519,11 +48544,11 @@
       <c r="I7" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="182" t="s">
+      <c r="J7" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="183"/>
-      <c r="L7" s="184"/>
+      <c r="K7" s="174"/>
+      <c r="L7" s="175"/>
       <c r="M7" s="66" t="s">
         <v>22</v>
       </c>
@@ -48548,8 +48573,8 @@
       <c r="T7" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="U7" s="191"/>
-      <c r="V7" s="192"/>
+      <c r="U7" s="176"/>
+      <c r="V7" s="177"/>
     </row>
     <row r="8" spans="1:23" ht="192.75" customHeight="1">
       <c r="B8" s="44" t="s">
@@ -48570,10 +48595,10 @@
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="186" t="s">
+      <c r="J8" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="187"/>
+      <c r="K8" s="179"/>
       <c r="L8" s="67"/>
       <c r="M8" s="44" t="s">
         <v>38</v>
@@ -48593,10 +48618,10 @@
       </c>
       <c r="S8" s="44"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="185" t="s">
+      <c r="U8" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="185"/>
+      <c r="V8" s="180"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="117"/>
@@ -48625,64 +48650,64 @@
     </row>
     <row r="10" spans="1:23" ht="18" customHeight="1"/>
     <row r="11" spans="1:23" s="42" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B11" s="176" t="s">
+      <c r="B11" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="177"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="179" t="s">
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="193" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="180"/>
-      <c r="L11" s="181"/>
-      <c r="M11" s="176" t="s">
+      <c r="K11" s="194"/>
+      <c r="L11" s="195"/>
+      <c r="M11" s="181" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="177"/>
-      <c r="O11" s="177"/>
-      <c r="P11" s="177"/>
-      <c r="Q11" s="177"/>
-      <c r="R11" s="177"/>
-      <c r="S11" s="177"/>
-      <c r="T11" s="178"/>
-      <c r="U11" s="172"/>
-      <c r="V11" s="173"/>
+      <c r="N11" s="182"/>
+      <c r="O11" s="182"/>
+      <c r="P11" s="182"/>
+      <c r="Q11" s="182"/>
+      <c r="R11" s="182"/>
+      <c r="S11" s="182"/>
+      <c r="T11" s="183"/>
+      <c r="U11" s="184"/>
+      <c r="V11" s="185"/>
     </row>
     <row r="12" spans="1:23" s="43" customFormat="1" ht="13.15" customHeight="1">
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="166"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="166"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="166"/>
-      <c r="H12" s="166"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="188" t="s">
+      <c r="C12" s="187"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="187"/>
+      <c r="G12" s="187"/>
+      <c r="H12" s="187"/>
+      <c r="I12" s="188"/>
+      <c r="J12" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="189"/>
-      <c r="L12" s="190"/>
-      <c r="M12" s="165" t="s">
+      <c r="K12" s="190"/>
+      <c r="L12" s="191"/>
+      <c r="M12" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="N12" s="166"/>
-      <c r="O12" s="166"/>
-      <c r="P12" s="166"/>
-      <c r="Q12" s="166"/>
-      <c r="R12" s="166"/>
-      <c r="S12" s="166"/>
-      <c r="T12" s="167"/>
-      <c r="U12" s="193" t="s">
+      <c r="N12" s="187"/>
+      <c r="O12" s="187"/>
+      <c r="P12" s="187"/>
+      <c r="Q12" s="187"/>
+      <c r="R12" s="187"/>
+      <c r="S12" s="187"/>
+      <c r="T12" s="188"/>
+      <c r="U12" s="192" t="s">
         <v>32</v>
       </c>
-      <c r="V12" s="193"/>
+      <c r="V12" s="192"/>
     </row>
     <row r="13" spans="1:23" s="42" customFormat="1" ht="29.25" customHeight="1">
       <c r="B13" s="66" t="s">
@@ -48709,11 +48734,11 @@
       <c r="I13" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="182" t="s">
+      <c r="J13" s="173" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="183"/>
-      <c r="L13" s="184"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="175"/>
       <c r="M13" s="66" t="s">
         <v>22</v>
       </c>
@@ -48738,8 +48763,8 @@
       <c r="T13" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="U13" s="191"/>
-      <c r="V13" s="192"/>
+      <c r="U13" s="176"/>
+      <c r="V13" s="177"/>
     </row>
     <row r="14" spans="1:23" ht="192.75" customHeight="1">
       <c r="B14" s="44" t="s">
@@ -48758,10 +48783,10 @@
       <c r="G14" s="44"/>
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
-      <c r="J14" s="186" t="s">
+      <c r="J14" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="187"/>
+      <c r="K14" s="179"/>
       <c r="L14" s="67"/>
       <c r="M14" s="44" t="s">
         <v>45</v>
@@ -48777,10 +48802,10 @@
       <c r="R14" s="44"/>
       <c r="S14" s="44"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="185" t="s">
+      <c r="U14" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="185"/>
+      <c r="V14" s="180"/>
     </row>
     <row r="15" spans="1:23" ht="12.75" customHeight="1">
       <c r="A15" s="117"/>
@@ -49024,25 +49049,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="33">
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="M11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="M6:T6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U6:V6"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="P2:T2"/>
     <mergeCell ref="M3:O3"/>
@@ -49057,6 +49063,25 @@
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="M5:T5"/>
     <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="M6:T6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="M11:T11"/>
+    <mergeCell ref="U11:V11"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.78740157480314965" header="0" footer="0.59055118110236227"/>
@@ -49088,14 +49113,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
     </row>
@@ -49103,35 +49128,35 @@
       <c r="A2" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="90">
+      <c r="B2" s="90" t="str">
         <f>Kundendatenliste!B2</f>
-        <v>0</v>
+        <v>00325_Parcom</v>
       </c>
       <c r="C2" s="127"/>
       <c r="D2" s="127"/>
       <c r="E2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="164">
+      <c r="F2" s="172">
         <f>Kundendatenliste!H2</f>
-        <v>0</v>
+        <v>44075</v>
       </c>
-      <c r="G2" s="164"/>
+      <c r="G2" s="172"/>
       <c r="H2" s="126"/>
     </row>
     <row r="3" spans="1:8" s="41" customFormat="1" ht="18.75">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="202" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="194" t="s">
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1">
       <c r="A4" s="38" t="s">

--- a/files/PBX_Doku_Vorlage.xlsx
+++ b/files/PBX_Doku_Vorlage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\PycharmProjects\DokutoolV1\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23507B0F-8E1D-46B3-A541-899FA54AD408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCC6266-0C28-4631-A2D3-E928D802343F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58800" yWindow="1995" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kundendatenliste" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="74">
   <si>
     <t>Objekt</t>
   </si>
@@ -283,9 +283,6 @@
   </si>
   <si>
     <t>PM Version:</t>
-  </si>
-  <si>
-    <t>00325_Parcom</t>
   </si>
 </sst>
 </file>
@@ -1333,6 +1330,39 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1348,49 +1378,8 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1399,6 +1388,15 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1430,63 +1428,20 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1497,34 +1452,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1542,12 +1469,92 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1558,16 +1565,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1646,63 +1643,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>270268</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>31488</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>651079</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>557664</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Grafik 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001080000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8220888" y="31488"/>
-          <a:ext cx="1711161" cy="523548"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>140803</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -1756,64 +1696,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>151156</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>111402</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>847724</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>654327</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Grafik 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4019134" y="111402"/>
-          <a:ext cx="1731894" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1870,7 +1753,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2192,9 +2075,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O454"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="94" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -2215,21 +2098,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="51" customHeight="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
       <c r="O1" s="12" t="s">
         <v>40</v>
       </c>
@@ -2238,22 +2121,18 @@
       <c r="A2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="147" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="148"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="147"/>
       <c r="D2" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="147"/>
-      <c r="F2" s="148"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="147"/>
       <c r="G2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="152">
-        <v>44075</v>
-      </c>
-      <c r="I2" s="152"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
       <c r="J2" s="140" t="s">
         <v>68</v>
       </c>
@@ -2265,18 +2144,18 @@
       <c r="A3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="147"/>
-      <c r="C3" s="148"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="147"/>
       <c r="D3" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="147"/>
-      <c r="F3" s="148"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="147"/>
       <c r="G3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
       <c r="J3" s="141" t="s">
         <v>69</v>
       </c>
@@ -2288,11 +2167,11 @@
       <c r="A4" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="147"/>
-      <c r="C4" s="148"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="147"/>
       <c r="D4" s="79"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="148"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="147"/>
       <c r="G4" s="79" t="s">
         <v>5</v>
       </c>
@@ -2306,37 +2185,37 @@
       <c r="M4" s="150"/>
     </row>
     <row r="5" spans="1:15" ht="18.75">
-      <c r="A5" s="144" t="s">
+      <c r="A5" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="142"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="144" t="s">
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142" t="s">
+      <c r="F5" s="151"/>
+      <c r="G5" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="143"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="152"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="149"/>
-      <c r="C6" s="145" t="s">
+      <c r="B6" s="156"/>
+      <c r="C6" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="149"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="156"/>
       <c r="G6" s="112"/>
       <c r="H6" s="112"/>
       <c r="I6" s="112"/>
@@ -9115,15 +8994,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="19">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M3"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A5:D5"/>
@@ -9134,6 +9004,15 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:M4"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="B208:B454">
@@ -9153,7 +9032,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Frutiger LT Std 47 Light Cn,Standard"&amp;8Seite &amp;P von &amp;N&amp;R&amp;"Frutiger LT Std 47 Light Cn,Standard"&amp;6ParCom Systems AG  |  Hasliring 1  |  6032 Emmen  | 041 268 60 00  | http://www.parcom.ch</oddFooter>
   </headerFooter>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -9178,124 +9056,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="50.25" customHeight="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="171" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="154"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
     </row>
     <row r="2" spans="1:21" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="158" t="str">
+      <c r="B2" s="161"/>
+      <c r="C2" s="159">
         <f xml:space="preserve"> Kundendatenliste!B2</f>
-        <v>00325_Parcom</v>
+        <v>0</v>
       </c>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="157" t="s">
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="161" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="155">
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="172">
         <f>Kundendatenliste!K2</f>
         <v>0</v>
       </c>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="156"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
       <c r="T2" s="2"/>
       <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:21" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="158">
+      <c r="B3" s="161"/>
+      <c r="C3" s="159">
         <f xml:space="preserve"> Kundendatenliste!B3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="157" t="s">
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="155">
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="172">
         <f>Kundendatenliste!K3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="156"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="173"/>
       <c r="T3" s="1"/>
       <c r="U3" s="4"/>
     </row>
     <row r="4" spans="1:21" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="157"/>
-      <c r="C4" s="158">
+      <c r="B4" s="161"/>
+      <c r="C4" s="159">
         <f xml:space="preserve"> Kundendatenliste!B4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="157" t="s">
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="157"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="155">
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="172">
         <f>Kundendatenliste!K4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="156"/>
-      <c r="R4" s="156"/>
-      <c r="S4" s="156"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="173"/>
+      <c r="P4" s="173"/>
+      <c r="Q4" s="173"/>
+      <c r="R4" s="173"/>
+      <c r="S4" s="173"/>
       <c r="T4" s="1"/>
       <c r="U4" s="4"/>
     </row>
@@ -9341,13 +9219,13 @@
       <c r="J6" s="169"/>
       <c r="K6" s="169"/>
       <c r="L6" s="170"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="161"/>
-      <c r="O6" s="161"/>
-      <c r="P6" s="161"/>
-      <c r="Q6" s="161"/>
-      <c r="R6" s="160"/>
-      <c r="S6" s="161"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="158"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="158"/>
+      <c r="Q6" s="158"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="158"/>
     </row>
     <row r="7" spans="1:21" ht="16.149999999999999" customHeight="1">
       <c r="A7" s="106"/>
@@ -43360,14 +43238,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="19">
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:S5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="F6:L6"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="M4:S4"/>
     <mergeCell ref="M3:S3"/>
@@ -43379,6 +43249,14 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:S5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="F6:L6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="B10:E509">
@@ -43405,8 +43283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H489"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
@@ -43420,39 +43298,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60" customHeight="1">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="174" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="206" t="s">
+      <c r="A2" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="90" t="str">
+      <c r="B2" s="90">
         <f>Kundendatenliste!B2</f>
-        <v>00325_Parcom</v>
+        <v>0</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="111"/>
       <c r="E2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="172">
-        <f>Kundendatenliste!H2</f>
-        <v>44075</v>
-      </c>
-      <c r="G2" s="172"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
       <c r="H2" s="110"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="144" t="s">
         <v>71</v>
       </c>
       <c r="B3" s="93"/>
@@ -43464,7 +43339,7 @@
       <c r="H3" s="71"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="144" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="93"/>
@@ -43476,7 +43351,7 @@
       <c r="H4" s="71"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="207" t="s">
+      <c r="A5" s="144" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="93"/>
@@ -43505,7 +43380,7 @@
       <c r="E7" s="93"/>
       <c r="F7" s="93"/>
       <c r="G7" s="93"/>
-      <c r="H7" s="205"/>
+      <c r="H7" s="142"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="128"/>
@@ -43515,7 +43390,7 @@
       <c r="E8" s="93"/>
       <c r="F8" s="93"/>
       <c r="G8" s="93"/>
-      <c r="H8" s="205"/>
+      <c r="H8" s="142"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="128"/>
@@ -43525,7 +43400,7 @@
       <c r="E9" s="93"/>
       <c r="F9" s="93"/>
       <c r="G9" s="93"/>
-      <c r="H9" s="205"/>
+      <c r="H9" s="142"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="128"/>
@@ -43535,7 +43410,7 @@
       <c r="E10" s="93"/>
       <c r="F10" s="93"/>
       <c r="G10" s="93"/>
-      <c r="H10" s="205"/>
+      <c r="H10" s="142"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="128"/>
@@ -43545,7 +43420,7 @@
       <c r="E11" s="93"/>
       <c r="F11" s="93"/>
       <c r="G11" s="93"/>
-      <c r="H11" s="205"/>
+      <c r="H11" s="142"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="128"/>
@@ -43555,7 +43430,7 @@
       <c r="E12" s="93"/>
       <c r="F12" s="93"/>
       <c r="G12" s="93"/>
-      <c r="H12" s="205"/>
+      <c r="H12" s="142"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="128"/>
@@ -43565,7 +43440,7 @@
       <c r="E13" s="93"/>
       <c r="F13" s="93"/>
       <c r="G13" s="93"/>
-      <c r="H13" s="205"/>
+      <c r="H13" s="142"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="128"/>
@@ -43575,7 +43450,7 @@
       <c r="E14" s="93"/>
       <c r="F14" s="93"/>
       <c r="G14" s="93"/>
-      <c r="H14" s="205"/>
+      <c r="H14" s="142"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="128"/>
@@ -43585,7 +43460,7 @@
       <c r="E15" s="93"/>
       <c r="F15" s="93"/>
       <c r="G15" s="93"/>
-      <c r="H15" s="205"/>
+      <c r="H15" s="142"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="128"/>
@@ -43595,7 +43470,7 @@
       <c r="E16" s="93"/>
       <c r="F16" s="93"/>
       <c r="G16" s="93"/>
-      <c r="H16" s="205"/>
+      <c r="H16" s="142"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="128"/>
@@ -43605,7 +43480,7 @@
       <c r="E17" s="93"/>
       <c r="F17" s="93"/>
       <c r="G17" s="93"/>
-      <c r="H17" s="205"/>
+      <c r="H17" s="142"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="128"/>
@@ -43615,7 +43490,7 @@
       <c r="E18" s="93"/>
       <c r="F18" s="93"/>
       <c r="G18" s="93"/>
-      <c r="H18" s="205"/>
+      <c r="H18" s="142"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="128"/>
@@ -43625,7 +43500,7 @@
       <c r="E19" s="93"/>
       <c r="F19" s="93"/>
       <c r="G19" s="93"/>
-      <c r="H19" s="205"/>
+      <c r="H19" s="142"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="128"/>
@@ -43635,7 +43510,7 @@
       <c r="E20" s="93"/>
       <c r="F20" s="93"/>
       <c r="G20" s="93"/>
-      <c r="H20" s="205"/>
+      <c r="H20" s="142"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="128"/>
@@ -43645,7 +43520,7 @@
       <c r="E21" s="93"/>
       <c r="F21" s="93"/>
       <c r="G21" s="93"/>
-      <c r="H21" s="205"/>
+      <c r="H21" s="142"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="128"/>
@@ -43655,7 +43530,7 @@
       <c r="E22" s="93"/>
       <c r="F22" s="93"/>
       <c r="G22" s="93"/>
-      <c r="H22" s="205"/>
+      <c r="H22" s="142"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="128"/>
@@ -43665,7 +43540,7 @@
       <c r="E23" s="93"/>
       <c r="F23" s="93"/>
       <c r="G23" s="93"/>
-      <c r="H23" s="205"/>
+      <c r="H23" s="142"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="128"/>
@@ -43675,7 +43550,7 @@
       <c r="E24" s="93"/>
       <c r="F24" s="93"/>
       <c r="G24" s="93"/>
-      <c r="H24" s="205"/>
+      <c r="H24" s="142"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="128"/>
@@ -43685,7 +43560,7 @@
       <c r="E25" s="93"/>
       <c r="F25" s="93"/>
       <c r="G25" s="93"/>
-      <c r="H25" s="205"/>
+      <c r="H25" s="142"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="128"/>
@@ -43695,7 +43570,7 @@
       <c r="E26" s="93"/>
       <c r="F26" s="93"/>
       <c r="G26" s="93"/>
-      <c r="H26" s="205"/>
+      <c r="H26" s="142"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="128"/>
@@ -43705,7 +43580,7 @@
       <c r="E27" s="93"/>
       <c r="F27" s="93"/>
       <c r="G27" s="93"/>
-      <c r="H27" s="205"/>
+      <c r="H27" s="142"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="128"/>
@@ -43715,7 +43590,7 @@
       <c r="E28" s="93"/>
       <c r="F28" s="93"/>
       <c r="G28" s="93"/>
-      <c r="H28" s="205"/>
+      <c r="H28" s="142"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="128"/>
@@ -43725,7 +43600,7 @@
       <c r="E29" s="93"/>
       <c r="F29" s="93"/>
       <c r="G29" s="93"/>
-      <c r="H29" s="205"/>
+      <c r="H29" s="142"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="128"/>
@@ -43735,7 +43610,7 @@
       <c r="E30" s="93"/>
       <c r="F30" s="93"/>
       <c r="G30" s="93"/>
-      <c r="H30" s="205"/>
+      <c r="H30" s="142"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="128"/>
@@ -43745,7 +43620,7 @@
       <c r="E31" s="93"/>
       <c r="F31" s="93"/>
       <c r="G31" s="93"/>
-      <c r="H31" s="205"/>
+      <c r="H31" s="142"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="128"/>
@@ -43755,7 +43630,7 @@
       <c r="E32" s="93"/>
       <c r="F32" s="93"/>
       <c r="G32" s="93"/>
-      <c r="H32" s="205"/>
+      <c r="H32" s="142"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="128"/>
@@ -43765,7 +43640,7 @@
       <c r="E33" s="93"/>
       <c r="F33" s="93"/>
       <c r="G33" s="93"/>
-      <c r="H33" s="205"/>
+      <c r="H33" s="142"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="128"/>
@@ -43775,7 +43650,7 @@
       <c r="E34" s="93"/>
       <c r="F34" s="93"/>
       <c r="G34" s="93"/>
-      <c r="H34" s="205"/>
+      <c r="H34" s="142"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="128"/>
@@ -43785,7 +43660,7 @@
       <c r="E35" s="93"/>
       <c r="F35" s="93"/>
       <c r="G35" s="93"/>
-      <c r="H35" s="205"/>
+      <c r="H35" s="142"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="128"/>
@@ -43795,7 +43670,7 @@
       <c r="E36" s="93"/>
       <c r="F36" s="93"/>
       <c r="G36" s="93"/>
-      <c r="H36" s="205"/>
+      <c r="H36" s="142"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="128"/>
@@ -43805,7 +43680,7 @@
       <c r="E37" s="93"/>
       <c r="F37" s="93"/>
       <c r="G37" s="93"/>
-      <c r="H37" s="205"/>
+      <c r="H37" s="142"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="128"/>
@@ -43815,7 +43690,7 @@
       <c r="E38" s="93"/>
       <c r="F38" s="93"/>
       <c r="G38" s="93"/>
-      <c r="H38" s="205"/>
+      <c r="H38" s="142"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="128"/>
@@ -43825,7 +43700,7 @@
       <c r="E39" s="93"/>
       <c r="F39" s="93"/>
       <c r="G39" s="93"/>
-      <c r="H39" s="205"/>
+      <c r="H39" s="142"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="128"/>
@@ -43835,7 +43710,7 @@
       <c r="E40" s="93"/>
       <c r="F40" s="93"/>
       <c r="G40" s="93"/>
-      <c r="H40" s="205"/>
+      <c r="H40" s="142"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="128"/>
@@ -43845,7 +43720,7 @@
       <c r="E41" s="93"/>
       <c r="F41" s="93"/>
       <c r="G41" s="93"/>
-      <c r="H41" s="205"/>
+      <c r="H41" s="142"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="128"/>
@@ -43855,7 +43730,7 @@
       <c r="E42" s="93"/>
       <c r="F42" s="93"/>
       <c r="G42" s="93"/>
-      <c r="H42" s="205"/>
+      <c r="H42" s="142"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="128"/>
@@ -43865,7 +43740,7 @@
       <c r="E43" s="93"/>
       <c r="F43" s="93"/>
       <c r="G43" s="93"/>
-      <c r="H43" s="205"/>
+      <c r="H43" s="142"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="128"/>
@@ -43875,7 +43750,7 @@
       <c r="E44" s="93"/>
       <c r="F44" s="93"/>
       <c r="G44" s="93"/>
-      <c r="H44" s="205"/>
+      <c r="H44" s="142"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="128"/>
@@ -43885,7 +43760,7 @@
       <c r="E45" s="93"/>
       <c r="F45" s="93"/>
       <c r="G45" s="93"/>
-      <c r="H45" s="205"/>
+      <c r="H45" s="142"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="128"/>
@@ -43895,7 +43770,7 @@
       <c r="E46" s="93"/>
       <c r="F46" s="93"/>
       <c r="G46" s="93"/>
-      <c r="H46" s="205"/>
+      <c r="H46" s="142"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="128"/>
@@ -43905,7 +43780,7 @@
       <c r="E47" s="93"/>
       <c r="F47" s="93"/>
       <c r="G47" s="93"/>
-      <c r="H47" s="205"/>
+      <c r="H47" s="142"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="128"/>
@@ -43915,7 +43790,7 @@
       <c r="E48" s="93"/>
       <c r="F48" s="93"/>
       <c r="G48" s="93"/>
-      <c r="H48" s="205"/>
+      <c r="H48" s="142"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="128"/>
@@ -43925,7 +43800,7 @@
       <c r="E49" s="93"/>
       <c r="F49" s="93"/>
       <c r="G49" s="93"/>
-      <c r="H49" s="205"/>
+      <c r="H49" s="142"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="128"/>
@@ -43935,7 +43810,7 @@
       <c r="E50" s="93"/>
       <c r="F50" s="93"/>
       <c r="G50" s="93"/>
-      <c r="H50" s="205"/>
+      <c r="H50" s="142"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="128"/>
@@ -43945,7 +43820,7 @@
       <c r="E51" s="93"/>
       <c r="F51" s="93"/>
       <c r="G51" s="93"/>
-      <c r="H51" s="205"/>
+      <c r="H51" s="142"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="128"/>
@@ -43955,7 +43830,7 @@
       <c r="E52" s="93"/>
       <c r="F52" s="93"/>
       <c r="G52" s="93"/>
-      <c r="H52" s="205"/>
+      <c r="H52" s="142"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="128"/>
@@ -43965,7 +43840,7 @@
       <c r="E53" s="93"/>
       <c r="F53" s="93"/>
       <c r="G53" s="93"/>
-      <c r="H53" s="205"/>
+      <c r="H53" s="142"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="128"/>
@@ -43975,7 +43850,7 @@
       <c r="E54" s="93"/>
       <c r="F54" s="93"/>
       <c r="G54" s="93"/>
-      <c r="H54" s="205"/>
+      <c r="H54" s="142"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="128"/>
@@ -43985,7 +43860,7 @@
       <c r="E55" s="93"/>
       <c r="F55" s="93"/>
       <c r="G55" s="93"/>
-      <c r="H55" s="205"/>
+      <c r="H55" s="142"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="128"/>
@@ -43995,7 +43870,7 @@
       <c r="E56" s="93"/>
       <c r="F56" s="93"/>
       <c r="G56" s="93"/>
-      <c r="H56" s="205"/>
+      <c r="H56" s="142"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="128"/>
@@ -44005,7 +43880,7 @@
       <c r="E57" s="93"/>
       <c r="F57" s="93"/>
       <c r="G57" s="93"/>
-      <c r="H57" s="205"/>
+      <c r="H57" s="142"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="128"/>
@@ -44015,7 +43890,7 @@
       <c r="E58" s="93"/>
       <c r="F58" s="93"/>
       <c r="G58" s="93"/>
-      <c r="H58" s="205"/>
+      <c r="H58" s="142"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="128"/>
@@ -44025,7 +43900,7 @@
       <c r="E59" s="93"/>
       <c r="F59" s="93"/>
       <c r="G59" s="93"/>
-      <c r="H59" s="205"/>
+      <c r="H59" s="142"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="128"/>
@@ -44035,7 +43910,7 @@
       <c r="E60" s="93"/>
       <c r="F60" s="93"/>
       <c r="G60" s="93"/>
-      <c r="H60" s="205"/>
+      <c r="H60" s="142"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="128"/>
@@ -44045,7 +43920,7 @@
       <c r="E61" s="93"/>
       <c r="F61" s="93"/>
       <c r="G61" s="93"/>
-      <c r="H61" s="205"/>
+      <c r="H61" s="142"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="128"/>
@@ -44055,7 +43930,7 @@
       <c r="E62" s="93"/>
       <c r="F62" s="93"/>
       <c r="G62" s="93"/>
-      <c r="H62" s="205"/>
+      <c r="H62" s="142"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="128"/>
@@ -44065,7 +43940,7 @@
       <c r="E63" s="93"/>
       <c r="F63" s="93"/>
       <c r="G63" s="93"/>
-      <c r="H63" s="205"/>
+      <c r="H63" s="142"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="128"/>
@@ -44075,7 +43950,7 @@
       <c r="E64" s="93"/>
       <c r="F64" s="93"/>
       <c r="G64" s="93"/>
-      <c r="H64" s="205"/>
+      <c r="H64" s="142"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="128"/>
@@ -44085,7 +43960,7 @@
       <c r="E65" s="93"/>
       <c r="F65" s="93"/>
       <c r="G65" s="93"/>
-      <c r="H65" s="205"/>
+      <c r="H65" s="142"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="128"/>
@@ -44095,7 +43970,7 @@
       <c r="E66" s="93"/>
       <c r="F66" s="93"/>
       <c r="G66" s="93"/>
-      <c r="H66" s="205"/>
+      <c r="H66" s="142"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="128"/>
@@ -44105,7 +43980,7 @@
       <c r="E67" s="93"/>
       <c r="F67" s="93"/>
       <c r="G67" s="93"/>
-      <c r="H67" s="205"/>
+      <c r="H67" s="142"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="128"/>
@@ -44115,7 +43990,7 @@
       <c r="E68" s="93"/>
       <c r="F68" s="93"/>
       <c r="G68" s="93"/>
-      <c r="H68" s="205"/>
+      <c r="H68" s="142"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="128"/>
@@ -44125,7 +44000,7 @@
       <c r="E69" s="93"/>
       <c r="F69" s="93"/>
       <c r="G69" s="93"/>
-      <c r="H69" s="205"/>
+      <c r="H69" s="142"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="128"/>
@@ -44135,7 +44010,7 @@
       <c r="E70" s="93"/>
       <c r="F70" s="93"/>
       <c r="G70" s="93"/>
-      <c r="H70" s="205"/>
+      <c r="H70" s="142"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="128"/>
@@ -44145,7 +44020,7 @@
       <c r="E71" s="93"/>
       <c r="F71" s="93"/>
       <c r="G71" s="93"/>
-      <c r="H71" s="205"/>
+      <c r="H71" s="142"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="128"/>
@@ -44155,7 +44030,7 @@
       <c r="E72" s="93"/>
       <c r="F72" s="93"/>
       <c r="G72" s="93"/>
-      <c r="H72" s="205"/>
+      <c r="H72" s="142"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="128"/>
@@ -44165,7 +44040,7 @@
       <c r="E73" s="93"/>
       <c r="F73" s="93"/>
       <c r="G73" s="93"/>
-      <c r="H73" s="205"/>
+      <c r="H73" s="142"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="128"/>
@@ -44175,7 +44050,7 @@
       <c r="E74" s="93"/>
       <c r="F74" s="93"/>
       <c r="G74" s="93"/>
-      <c r="H74" s="205"/>
+      <c r="H74" s="142"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="128"/>
@@ -44185,7 +44060,7 @@
       <c r="E75" s="93"/>
       <c r="F75" s="93"/>
       <c r="G75" s="93"/>
-      <c r="H75" s="205"/>
+      <c r="H75" s="142"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="128"/>
@@ -44195,7 +44070,7 @@
       <c r="E76" s="93"/>
       <c r="F76" s="93"/>
       <c r="G76" s="93"/>
-      <c r="H76" s="205"/>
+      <c r="H76" s="142"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="68"/>
@@ -48350,7 +48225,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Frutiger LT Std 47 Light Cn,Standard"&amp;8Seite &amp;P von &amp;N&amp;R&amp;"Frutiger LT Std 47 Light Cn,Standard"&amp;6ParCom Systems AG  |  Hasliring 1  |  6032 Emmen  | 041 268 60 00  | http://www.parcom.ch</oddFooter>
   </headerFooter>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -48371,153 +48245,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="60" customHeight="1">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
+      <c r="S1" s="174"/>
+      <c r="T1" s="174"/>
+      <c r="U1" s="174"/>
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
     </row>
     <row r="2" spans="1:23" ht="18" customHeight="1">
       <c r="A2" s="46"/>
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="199" t="str">
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="182">
         <f>Kundendatenliste!B2</f>
-        <v>00325_Parcom</v>
+        <v>0</v>
       </c>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
       <c r="J2" s="45"/>
       <c r="K2" s="45"/>
       <c r="L2" s="45"/>
-      <c r="M2" s="196" t="s">
+      <c r="M2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="172">
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="175">
         <f>Kundendatenliste!H2</f>
-        <v>44075</v>
+        <v>0</v>
       </c>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="172"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="172"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
       <c r="U2" s="45"/>
       <c r="V2" s="46"/>
       <c r="W2" s="46"/>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1">
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
       <c r="J3" s="37"/>
       <c r="K3" s="37"/>
       <c r="L3" s="37"/>
-      <c r="M3" s="196" t="s">
+      <c r="M3" s="179" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="196"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197" t="s">
+      <c r="N3" s="179"/>
+      <c r="O3" s="179"/>
+      <c r="P3" s="180" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" s="198"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="198"/>
-      <c r="T3" s="198"/>
+      <c r="Q3" s="181"/>
+      <c r="R3" s="181"/>
+      <c r="S3" s="181"/>
+      <c r="T3" s="181"/>
       <c r="U3" s="37"/>
     </row>
     <row r="4" spans="1:23" ht="18" customHeight="1"/>
     <row r="5" spans="1:23" s="42" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B5" s="181" t="s">
+      <c r="B5" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="193" t="s">
+      <c r="C5" s="188"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="188"/>
+      <c r="F5" s="188"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="188"/>
+      <c r="I5" s="189"/>
+      <c r="J5" s="190" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="194"/>
-      <c r="L5" s="195"/>
-      <c r="M5" s="181" t="s">
+      <c r="K5" s="191"/>
+      <c r="L5" s="192"/>
+      <c r="M5" s="187" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="182"/>
-      <c r="O5" s="182"/>
-      <c r="P5" s="182"/>
-      <c r="Q5" s="182"/>
-      <c r="R5" s="182"/>
-      <c r="S5" s="182"/>
-      <c r="T5" s="183"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="185"/>
+      <c r="N5" s="188"/>
+      <c r="O5" s="188"/>
+      <c r="P5" s="188"/>
+      <c r="Q5" s="188"/>
+      <c r="R5" s="188"/>
+      <c r="S5" s="188"/>
+      <c r="T5" s="189"/>
+      <c r="U5" s="183"/>
+      <c r="V5" s="184"/>
     </row>
     <row r="6" spans="1:23" s="43" customFormat="1" ht="13.15" customHeight="1">
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="189" t="s">
+      <c r="C6" s="177"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="199" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="190"/>
-      <c r="L6" s="191"/>
-      <c r="M6" s="186" t="s">
+      <c r="K6" s="200"/>
+      <c r="L6" s="201"/>
+      <c r="M6" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="187"/>
-      <c r="O6" s="187"/>
-      <c r="P6" s="187"/>
-      <c r="Q6" s="187"/>
-      <c r="R6" s="187"/>
-      <c r="S6" s="187"/>
-      <c r="T6" s="188"/>
-      <c r="U6" s="192" t="s">
+      <c r="N6" s="177"/>
+      <c r="O6" s="177"/>
+      <c r="P6" s="177"/>
+      <c r="Q6" s="177"/>
+      <c r="R6" s="177"/>
+      <c r="S6" s="177"/>
+      <c r="T6" s="178"/>
+      <c r="U6" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="192"/>
+      <c r="V6" s="204"/>
     </row>
     <row r="7" spans="1:23" s="42" customFormat="1" ht="29.25" customHeight="1">
       <c r="B7" s="66" t="s">
@@ -48544,11 +48418,11 @@
       <c r="I7" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="173" t="s">
+      <c r="J7" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="174"/>
-      <c r="L7" s="175"/>
+      <c r="K7" s="194"/>
+      <c r="L7" s="195"/>
       <c r="M7" s="66" t="s">
         <v>22</v>
       </c>
@@ -48573,8 +48447,8 @@
       <c r="T7" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="U7" s="176"/>
-      <c r="V7" s="177"/>
+      <c r="U7" s="202"/>
+      <c r="V7" s="203"/>
     </row>
     <row r="8" spans="1:23" ht="192.75" customHeight="1">
       <c r="B8" s="44" t="s">
@@ -48595,10 +48469,10 @@
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="178" t="s">
+      <c r="J8" s="197" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="179"/>
+      <c r="K8" s="198"/>
       <c r="L8" s="67"/>
       <c r="M8" s="44" t="s">
         <v>38</v>
@@ -48618,10 +48492,10 @@
       </c>
       <c r="S8" s="44"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="180" t="s">
+      <c r="U8" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="180"/>
+      <c r="V8" s="196"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="117"/>
@@ -48650,64 +48524,64 @@
     </row>
     <row r="10" spans="1:23" ht="18" customHeight="1"/>
     <row r="11" spans="1:23" s="42" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B11" s="181" t="s">
+      <c r="B11" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="182"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="182"/>
-      <c r="F11" s="182"/>
-      <c r="G11" s="182"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="193" t="s">
+      <c r="C11" s="188"/>
+      <c r="D11" s="188"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="188"/>
+      <c r="H11" s="188"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="190" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="194"/>
-      <c r="L11" s="195"/>
-      <c r="M11" s="181" t="s">
+      <c r="K11" s="191"/>
+      <c r="L11" s="192"/>
+      <c r="M11" s="187" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="182"/>
-      <c r="O11" s="182"/>
-      <c r="P11" s="182"/>
-      <c r="Q11" s="182"/>
-      <c r="R11" s="182"/>
-      <c r="S11" s="182"/>
-      <c r="T11" s="183"/>
-      <c r="U11" s="184"/>
-      <c r="V11" s="185"/>
+      <c r="N11" s="188"/>
+      <c r="O11" s="188"/>
+      <c r="P11" s="188"/>
+      <c r="Q11" s="188"/>
+      <c r="R11" s="188"/>
+      <c r="S11" s="188"/>
+      <c r="T11" s="189"/>
+      <c r="U11" s="183"/>
+      <c r="V11" s="184"/>
     </row>
     <row r="12" spans="1:23" s="43" customFormat="1" ht="13.15" customHeight="1">
-      <c r="B12" s="186" t="s">
+      <c r="B12" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="187"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="187"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="188"/>
-      <c r="J12" s="189" t="s">
+      <c r="C12" s="177"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="177"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="199" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="190"/>
-      <c r="L12" s="191"/>
-      <c r="M12" s="186" t="s">
+      <c r="K12" s="200"/>
+      <c r="L12" s="201"/>
+      <c r="M12" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="N12" s="187"/>
-      <c r="O12" s="187"/>
-      <c r="P12" s="187"/>
-      <c r="Q12" s="187"/>
-      <c r="R12" s="187"/>
-      <c r="S12" s="187"/>
-      <c r="T12" s="188"/>
-      <c r="U12" s="192" t="s">
+      <c r="N12" s="177"/>
+      <c r="O12" s="177"/>
+      <c r="P12" s="177"/>
+      <c r="Q12" s="177"/>
+      <c r="R12" s="177"/>
+      <c r="S12" s="177"/>
+      <c r="T12" s="178"/>
+      <c r="U12" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="V12" s="192"/>
+      <c r="V12" s="204"/>
     </row>
     <row r="13" spans="1:23" s="42" customFormat="1" ht="29.25" customHeight="1">
       <c r="B13" s="66" t="s">
@@ -48734,11 +48608,11 @@
       <c r="I13" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="173" t="s">
+      <c r="J13" s="193" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="174"/>
-      <c r="L13" s="175"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="195"/>
       <c r="M13" s="66" t="s">
         <v>22</v>
       </c>
@@ -48763,8 +48637,8 @@
       <c r="T13" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="U13" s="176"/>
-      <c r="V13" s="177"/>
+      <c r="U13" s="202"/>
+      <c r="V13" s="203"/>
     </row>
     <row r="14" spans="1:23" ht="192.75" customHeight="1">
       <c r="B14" s="44" t="s">
@@ -48783,10 +48657,10 @@
       <c r="G14" s="44"/>
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
-      <c r="J14" s="178" t="s">
+      <c r="J14" s="197" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="179"/>
+      <c r="K14" s="198"/>
       <c r="L14" s="67"/>
       <c r="M14" s="44" t="s">
         <v>45</v>
@@ -48802,10 +48676,10 @@
       <c r="R14" s="44"/>
       <c r="S14" s="44"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="180" t="s">
+      <c r="U14" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="180"/>
+      <c r="V14" s="196"/>
     </row>
     <row r="15" spans="1:23" ht="12.75" customHeight="1">
       <c r="A15" s="117"/>
@@ -49049,6 +48923,25 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="33">
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="M11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="M6:T6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="P2:T2"/>
     <mergeCell ref="M3:O3"/>
@@ -49063,25 +48956,6 @@
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="M5:T5"/>
     <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="M6:T6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="M11:T11"/>
-    <mergeCell ref="U11:V11"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.78740157480314965" header="0" footer="0.59055118110236227"/>
@@ -49113,14 +48987,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60" customHeight="1">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
     </row>
@@ -49128,35 +49002,35 @@
       <c r="A2" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="90" t="str">
+      <c r="B2" s="90">
         <f>Kundendatenliste!B2</f>
-        <v>00325_Parcom</v>
+        <v>0</v>
       </c>
       <c r="C2" s="127"/>
       <c r="D2" s="127"/>
       <c r="E2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="172">
+      <c r="F2" s="175">
         <f>Kundendatenliste!H2</f>
-        <v>44075</v>
+        <v>0</v>
       </c>
-      <c r="G2" s="172"/>
+      <c r="G2" s="175"/>
       <c r="H2" s="126"/>
     </row>
     <row r="3" spans="1:8" s="41" customFormat="1" ht="18.75">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="205" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="202" t="s">
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1">
       <c r="A4" s="38" t="s">

--- a/files/PBX_Doku_Vorlage.xlsx
+++ b/files/PBX_Doku_Vorlage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\PycharmProjects\DokutoolV1\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCC6266-0C28-4631-A2D3-E928D802343F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3594356E-E8D6-4115-8F64-497BC6FC229F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58800" yWindow="1995" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kundendatenliste" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
   <si>
     <t>Objekt</t>
   </si>
@@ -247,9 +247,6 @@
   </si>
   <si>
     <t>Schmetterling</t>
-  </si>
-  <si>
-    <t>T26106ZC7V</t>
   </si>
   <si>
     <t>CSP / CAT</t>
@@ -1696,120 +1693,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>368162</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>60463</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>245580</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>593863</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4097" name="Grafik 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001100000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6696075" y="60463"/>
-          <a:ext cx="1741005" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>151156</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>111402</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>847724</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>654327</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A63D2AA5-FF46-45F9-B196-65D85AA8A62A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5088916" y="111402"/>
-          <a:ext cx="1763368" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2075,9 +1958,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O454"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -2134,7 +2017,7 @@
       <c r="H2" s="148"/>
       <c r="I2" s="148"/>
       <c r="J2" s="140" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K2" s="150"/>
       <c r="L2" s="150"/>
@@ -2157,7 +2040,7 @@
       <c r="H3" s="149"/>
       <c r="I3" s="149"/>
       <c r="J3" s="141" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K3" s="150"/>
       <c r="L3" s="150"/>
@@ -2178,7 +2061,7 @@
       <c r="H4" s="150"/>
       <c r="I4" s="150"/>
       <c r="J4" s="141" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K4" s="150"/>
       <c r="L4" s="150"/>
@@ -2253,16 +2136,16 @@
         <v>55</v>
       </c>
       <c r="J7" s="133" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="133" t="s">
+      <c r="L7" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="133" t="s">
+      <c r="M7" s="124" t="s">
         <v>65</v>
-      </c>
-      <c r="M7" s="124" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1">
@@ -43283,8 +43166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H489"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
@@ -43299,7 +43182,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="60" customHeight="1">
       <c r="A1" s="174" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="174"/>
       <c r="C1" s="174"/>
@@ -43322,13 +43205,16 @@
       <c r="E2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="175"/>
+      <c r="F2" s="175">
+        <f>Kundendatenliste!H2</f>
+        <v>0</v>
+      </c>
       <c r="G2" s="175"/>
       <c r="H2" s="110"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="144" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="93"/>
       <c r="C3" s="93"/>
@@ -43340,7 +43226,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="144" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="93"/>
       <c r="C4" s="93"/>
@@ -43352,7 +43238,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="144" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="93"/>
       <c r="C5" s="93"/>
@@ -48233,7 +48119,7 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="P2" sqref="P2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
@@ -48451,21 +48337,11 @@
       <c r="V7" s="203"/>
     </row>
     <row r="8" spans="1:23" ht="192.75" customHeight="1">
-      <c r="B8" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>39</v>
-      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
@@ -48474,22 +48350,12 @@
       </c>
       <c r="K8" s="198"/>
       <c r="L8" s="67"/>
-      <c r="M8" s="44" t="s">
-        <v>38</v>
-      </c>
+      <c r="M8" s="44"/>
       <c r="N8" s="44"/>
-      <c r="O8" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="R8" s="44" t="s">
-        <v>39</v>
-      </c>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
       <c r="S8" s="44"/>
       <c r="T8" s="44"/>
       <c r="U8" s="196" t="s">
@@ -48963,7 +48829,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Frutiger LT Std 47 Light Cn,Standard"&amp;8Seite &amp;P von &amp;N&amp;R&amp;"Frutiger LT Std 47 Light Cn,Standard"&amp;6ParCom Systems AG  |  Hasliring 1  |  6032 Emmen  | 041 268 60 00  | http://www.parcom.ch</oddFooter>
   </headerFooter>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -48973,7 +48838,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
@@ -49073,12 +48938,8 @@
       <c r="B6" s="93"/>
       <c r="C6" s="93"/>
       <c r="D6" s="70"/>
-      <c r="E6" s="68">
-        <v>5613</v>
-      </c>
-      <c r="F6" s="123" t="s">
-        <v>62</v>
-      </c>
+      <c r="E6" s="68"/>
+      <c r="F6" s="123"/>
       <c r="G6" s="89"/>
       <c r="H6" s="70"/>
     </row>
@@ -54125,6 +53986,5 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Frutiger LT Std 47 Light Cn,Standard"&amp;8Seite &amp;P von &amp;N&amp;R&amp;"Frutiger LT Std 47 Light Cn,Standard"&amp;6ParCom Systems AG  |  Hasliring 1  |  6032 Emmen  | 041 268 60 00  | http://www.parcom.ch</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>